--- a/Unity Project/Assets/Resources/Data/MonsterData.xlsx
+++ b/Unity Project/Assets/Resources/Data/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF591F5-366E-4863-8CD4-FAB034875CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9AC94-97C3-4546-A836-2D2950657FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="1950" windowWidth="14550" windowHeight="11385" xr2:uid="{1C251CD2-84BD-40AF-999B-0722BAA5CB8C}"/>
+    <workbookView xWindow="8400" yWindow="1845" windowWidth="14550" windowHeight="11385" xr2:uid="{1C251CD2-84BD-40AF-999B-0722BAA5CB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +492,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,6 +594,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>

--- a/Unity Project/Assets/Resources/Data/MonsterData.xlsx
+++ b/Unity Project/Assets/Resources/Data/MonsterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9AC94-97C3-4546-A836-2D2950657FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12920F9F-BE3E-4727-878B-49F32F48407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1845" windowWidth="14550" windowHeight="11385" xr2:uid="{1C251CD2-84BD-40AF-999B-0722BAA5CB8C}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{1C251CD2-84BD-40AF-999B-0722BAA5CB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurtleShell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +496,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,7 +625,30 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>

--- a/Unity Project/Assets/Resources/Data/MonsterData.xlsx
+++ b/Unity Project/Assets/Resources/Data/MonsterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\RRD\Unity Project\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12920F9F-BE3E-4727-878B-49F32F48407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639FC44F-996D-4319-ABDA-129357CF0440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{1C251CD2-84BD-40AF-999B-0722BAA5CB8C}"/>
+    <workbookView xWindow="8400" yWindow="1845" windowWidth="14550" windowHeight="11385" xr2:uid="{1C251CD2-84BD-40AF-999B-0722BAA5CB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goblin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ground</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,15 +78,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Slime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TurtleShell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogKnight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +492,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,25 +547,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -580,10 +576,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -592,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -606,52 +602,23 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>

--- a/Unity Project/Assets/Resources/Data/MonsterData.xlsx
+++ b/Unity Project/Assets/Resources/Data/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639FC44F-996D-4319-ABDA-129357CF0440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD78534-86B9-471B-9E8A-4620B0164B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1845" windowWidth="14550" windowHeight="11385" xr2:uid="{1C251CD2-84BD-40AF-999B-0722BAA5CB8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C251CD2-84BD-40AF-999B-0722BAA5CB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>DogKnight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +496,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +505,8 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.3">
@@ -517,19 +523,20 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -556,16 +563,19 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -582,16 +592,19 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -608,16 +621,19 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>200</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -707,5 +723,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>